--- a/db aziende/db aziende da aggiungere2.xlsx
+++ b/db aziende/db aziende da aggiungere2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="252">
   <si>
     <t>pIva</t>
   </si>
@@ -56,7 +56,7 @@
     <t>cittaSedeTirocinio</t>
   </si>
   <si>
-    <t>LEGALE RAPPRESENTE </t>
+    <t>LEGALE RAPPRESENTE</t>
   </si>
   <si>
     <t>nomeRappresLegale</t>
@@ -119,7 +119,7 @@
     <t>0313355418</t>
   </si>
   <si>
-    <t>RIPARAZ MACCHINE PER UFFICIO INFO </t>
+    <t>RIPARAZ MACCHINE PER UFFICIO INFO</t>
   </si>
   <si>
     <t>VIA COMO 3  LONGONE AL SEGRINO</t>
@@ -155,7 +155,7 @@
     <t>CONFINDUSTRIA</t>
   </si>
   <si>
-    <t>CORSO PROMESSI SPOSI 25D     LECCO </t>
+    <t>CORSO PROMESSI SPOSI 25D     LECCO</t>
   </si>
   <si>
     <t>GIORGIO MISSAGLIA</t>
@@ -506,7 +506,7 @@
     <t>031797058</t>
   </si>
   <si>
-    <t>EDILIZIA </t>
+    <t>EDILIZIA</t>
   </si>
   <si>
     <t>CASSA EDILE PROV.LE COMO E LECCO</t>
@@ -539,9 +539,6 @@
     <t>0341282722</t>
   </si>
   <si>
-    <t>EDILIZIA</t>
-  </si>
-  <si>
     <t>VIA MENTANA 51    LECCO</t>
   </si>
   <si>
@@ -554,7 +551,7 @@
     <t>02066300134</t>
   </si>
   <si>
-    <t>STUDIO TECNICO GEOM. GABRIELE ACERBONI </t>
+    <t>STUDIO TECNICO GEOM. GABRIELE ACERBONI</t>
   </si>
   <si>
     <t>0341802132</t>
@@ -563,7 +560,7 @@
     <t>ATTIVITA' TECNICHE</t>
   </si>
   <si>
-    <t>LOC. PIAZZO POSSOLO 1 CASARGO </t>
+    <t>LOC. PIAZZO POSSOLO 1 CASARGO</t>
   </si>
   <si>
     <t>GABRIELE ACERBONI</t>
@@ -786,7 +783,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -815,11 +812,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -914,7 +906,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,47 +918,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,7 +981,7 @@
   </sheetPr>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +989,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.25"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.97448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5612244897959"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9081632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.81122448979592"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.91326530612245"/>
@@ -1921,11 +1913,11 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="10" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1933,12 +1925,12 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>30</v>
@@ -1949,27 +1941,27 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="119.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1977,12 +1969,12 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R21" s="10" t="s">
         <v>97</v>
@@ -1993,47 +1985,47 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="10" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="S22" s="12" t="n">
         <v>21758</v>
@@ -2041,29 +2033,29 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="60.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2071,12 +2063,12 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R23" s="10" t="s">
         <v>97</v>
@@ -2087,29 +2079,29 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="130.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2117,15 +2109,15 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S24" s="12" t="n">
         <v>14074</v>
@@ -2133,44 +2125,44 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="60.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R25" s="10" t="s">
         <v>30</v>
@@ -2181,27 +2173,27 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="72.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2209,12 +2201,12 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>30</v>
@@ -2225,27 +2217,27 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2253,12 +2245,12 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R27" s="10" t="s">
         <v>30</v>
@@ -2269,27 +2261,27 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="83.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2297,12 +2289,12 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>39</v>
@@ -2313,37 +2305,37 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="130.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="E29" s="13"/>
       <c r="G29" s="10"/>
       <c r="H29" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R29" s="10" t="s">
         <v>30</v>
@@ -2354,42 +2346,42 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="83.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>30</v>
@@ -2400,7 +2392,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
